--- a/medicine/Enfance/Marc_Vlieger/Marc_Vlieger.xlsx
+++ b/medicine/Enfance/Marc_Vlieger/Marc_Vlieger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marc Vlieger, dit Marcke, né le 6 août 1961 à Bruxelles (province de Brabant), est un auteur de bande dessinée et illustrateur belge.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc Vlieger naît le 6 août 1961[1] à Bruxelles. Il étudie dans plusieurs académies des beaux-arts. Il apprend la bande dessinée auprès d'Eddy Paape à l'Académie des beaux-arts de Saint-Gilles puis d'Alain Goffin en cours du soir et de Thierry Van Hasselt, le responsable de Fréon[2]. Il est influencé par Hermann et Gibrat[2]. Il publie ses premiers travaux dans l'album collectif C'est pas parce qu'on fait la planche... qu'on doit forcément faire des bulles aux côtés de Janry, Dupa, Patryck de Froidmont et leur professeur Guy Brasseur, à l'école d'Art de Woluwe-Saint-Pierre en 1984[3]. On le retrouve des années après dans l'album dirigé par André Moons, collaborant graphiquement à l'album L'Affaire Breugel, scénarisé par Vincent Lodewick édité par l'Exécutif de Bruxelles-Capitale en 1992[4]. Vlieger réalise seul son premier album, la chronique sociale L'Échangeur, publié dans la collection « Encrages » aux éditions Delcourt en 2003, à l'âge de 42 ans[5]. Quatre ans plus tard, il publie Les Âmes sombres dans la collection « Mirages » du même éditeur. Deux ans plus tard, pour la même collection, il réalise À l'ombre du monde, la fin de sa fausse trilogie et développe des thèmes qui lui sont chers : la marginalité, la vieillesse et les rapports humains selon le réalisateur Laurent Boileau dans sa chronique parue sur ActuaBD en 2010[6]. En 2019, on le retrouve au sein du collectif Harengs rouges et publie La Vallée rêvée - Namur se fait des BD fleuves aux éditions namuroises[7]. En 2023, il réalise deux livres jeunesse autour du patrimoine namurois : On a volé la citadelle ! et Le cheval Bayard s'est échappé ! qu'il signe du pseudonyme de Marcke[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc Vlieger naît le 6 août 1961 à Bruxelles. Il étudie dans plusieurs académies des beaux-arts. Il apprend la bande dessinée auprès d'Eddy Paape à l'Académie des beaux-arts de Saint-Gilles puis d'Alain Goffin en cours du soir et de Thierry Van Hasselt, le responsable de Fréon. Il est influencé par Hermann et Gibrat. Il publie ses premiers travaux dans l'album collectif C'est pas parce qu'on fait la planche... qu'on doit forcément faire des bulles aux côtés de Janry, Dupa, Patryck de Froidmont et leur professeur Guy Brasseur, à l'école d'Art de Woluwe-Saint-Pierre en 1984. On le retrouve des années après dans l'album dirigé par André Moons, collaborant graphiquement à l'album L'Affaire Breugel, scénarisé par Vincent Lodewick édité par l'Exécutif de Bruxelles-Capitale en 1992. Vlieger réalise seul son premier album, la chronique sociale L'Échangeur, publié dans la collection « Encrages » aux éditions Delcourt en 2003, à l'âge de 42 ans. Quatre ans plus tard, il publie Les Âmes sombres dans la collection « Mirages » du même éditeur. Deux ans plus tard, pour la même collection, il réalise À l'ombre du monde, la fin de sa fausse trilogie et développe des thèmes qui lui sont chers : la marginalité, la vieillesse et les rapports humains selon le réalisateur Laurent Boileau dans sa chronique parue sur ActuaBD en 2010. En 2019, on le retrouve au sein du collectif Harengs rouges et publie La Vallée rêvée - Namur se fait des BD fleuves aux éditions namuroises. En 2023, il réalise deux livres jeunesse autour du patrimoine namurois : On a volé la citadelle ! et Le cheval Bayard s'est échappé ! qu'il signe du pseudonyme de Marcke.
 </t>
         </is>
       </c>
@@ -542,16 +556,52 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Échangeur[5],[9],[10], Delcourt, collection « Encrages », 2003  (ISBN 2-84055-796-7).
-Les Âmes sombres[11],[12], Delcourt, coll. « Mirages », 2007  (ISBN 978-2-7560-0670-3).
-Les Fils de la racaille[13],[14],[15], Delcourt, coll. « Mirages », 2008  (ISBN 978-2-7560-1079-3).
-À l'ombre du monde[6], Delcourt, coll. « Mirages », 2009  (ISBN 978-2-7560-1701-3).
-Collectifs
-2 C'est pas parce qu'on fait la planche... qu'on doit forcément faire des bulles !, Bukak, Bruxelles, 1984Scénario : collectif - Dessin : collectif dont Marc Vlieger - Couleurs : quadrichromie
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Échangeur Delcourt, collection « Encrages », 2003  (ISBN 2-84055-796-7).
+Les Âmes sombres Delcourt, coll. « Mirages », 2007  (ISBN 978-2-7560-0670-3).
+Les Fils de la racaille Delcourt, coll. « Mirages », 2008  (ISBN 978-2-7560-1079-3).
+À l'ombre du monde, Delcourt, coll. « Mirages », 2009  (ISBN 978-2-7560-1701-3).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marc_Vlieger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marc_Vlieger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 C'est pas parce qu'on fait la planche... qu'on doit forcément faire des bulles !, Bukak, Bruxelles, 1984Scénario : collectif - Dessin : collectif dont Marc Vlieger - Couleurs : quadrichromie
 L'Affaire Bruegel, Exécutif de la Région de Bruxelles-Capitale, Bruxelles, 1991Scénario : André Moons, Vincent Dugomier  - Dessin : André Moons, K. Amézian dont Marc Vlieger - Couleurs : André Moons, Bruno Wesel, Ziad, Noun, Frédéric Thiry,Décors : Marc Vlieger, encrage : Marc Vlieger. Postface : Charles Picqué.
-La Vallée rêvée[16], Les éditions namuroises, Namur, septembre 2019Scénario : collectif - Dessin : collectif dont Marc Vlieger - Couleurs : quadrichromie -  (ISBN 978-2-87551-095-2)</t>
+La Vallée rêvée, Les éditions namuroises, Namur, septembre 2019Scénario : collectif - Dessin : collectif dont Marc Vlieger - Couleurs : quadrichromie -  (ISBN 978-2-87551-095-2)</t>
         </is>
       </c>
     </row>
